--- a/biology/Zoologie/Adelpha_coryneta/Adelpha_coryneta.xlsx
+++ b/biology/Zoologie/Adelpha_coryneta/Adelpha_coryneta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha coryneta  est une espèce de papillons de la famille des Nymphalidae, sous famille des Limenitidinae et du genre Adelpha.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha coryneta a été décrit par William Chapman Hewitson en 1874 sous le nom Heterochroa coryneta[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha coryneta a été décrit par William Chapman Hewitson en 1874 sous le nom Heterochroa coryneta.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,12 +612,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha coryneta est présent en Bolivie[1]. 
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha coryneta est présent en Bolivie. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adelpha_coryneta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_coryneta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
